--- a/team_specific_matrix/LMU (CA)_B.xlsx
+++ b/team_specific_matrix/LMU (CA)_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.09259259259259259</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.8015873015873016</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.1587301587301587</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.08294930875576037</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.1105990783410138</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2534562211981567</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01382488479262673</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.1382488479262673</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.05529953917050692</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.3456221198156682</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.08383233532934131</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.0718562874251497</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1137724550898204</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.02994011976047904</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.1796407185628743</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.0658682634730539</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.4431137724550898</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.002293577981651376</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.05275229357798165</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1169724770642202</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.2064220183486239</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.4334862385321101</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1021505376344086</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.1021505376344086</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.4193548387096774</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.09463414634146342</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.02341463414634146</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.001951219512195122</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.07609756097560975</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1053658536585366</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.0224390243902439</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.2282926829268293</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.07707317073170732</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.3707317073170732</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.1317829457364341</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.189922480620155</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5697674418604651</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.01550387596899225</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.7124183006535948</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1830065359477124</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.07843137254901961</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2067307692307692</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.05288461538461538</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2836538461538461</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2098765432098765</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1049382716049383</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.1358024691358025</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.02163461538461538</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1778846153846154</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.40625</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02163461538461538</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.06490384615384616</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.08653846153846154</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.01973684210526316</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1776315789473684</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3486842105263158</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01973684210526316</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.1842105263157895</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.02463503649635037</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2363138686131387</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.0948905109489051</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3448905109489051</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1067518248175182</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02281021897810219</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.06478102189781022</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.1049270072992701</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/LMU (CA)_B.xlsx
+++ b/team_specific_matrix/LMU (CA)_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1805555555555556</v>
+        <v>0.1875</v>
       </c>
       <c r="C2">
-        <v>0.5740740740740741</v>
+        <v>0.5541666666666667</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.004629629629629629</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="P2">
-        <v>0.1481481481481481</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09259259259259259</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007936507936507936</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="C3">
-        <v>0.007936507936507936</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02380952380952381</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8015873015873016</v>
+        <v>0.7971014492753623</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1587301587301587</v>
+        <v>0.1449275362318841</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7777777777777778</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2222222222222222</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08294930875576037</v>
+        <v>0.0912863070539419</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1105990783410138</v>
+        <v>0.1037344398340249</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2534562211981567</v>
+        <v>0.2489626556016598</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01382488479262673</v>
+        <v>0.01244813278008299</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1382488479262673</v>
+        <v>0.1327800829875519</v>
       </c>
       <c r="R6">
-        <v>0.05529953917050692</v>
+        <v>0.05809128630705394</v>
       </c>
       <c r="S6">
-        <v>0.3456221198156682</v>
+        <v>0.3526970954356847</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08383233532934131</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01197604790419162</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0718562874251497</v>
+        <v>0.06989247311827956</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1137724550898204</v>
+        <v>0.1344086021505376</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02994011976047904</v>
+        <v>0.02688172043010753</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1796407185628743</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="R7">
-        <v>0.0658682634730539</v>
+        <v>0.05913978494623656</v>
       </c>
       <c r="S7">
-        <v>0.4431137724550898</v>
+        <v>0.4408602150537634</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06422018348623854</v>
+        <v>0.06237006237006237</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03669724770642202</v>
+        <v>0.03742203742203742</v>
       </c>
       <c r="E8">
-        <v>0.002293577981651376</v>
+        <v>0.002079002079002079</v>
       </c>
       <c r="F8">
-        <v>0.05275229357798165</v>
+        <v>0.05197505197505198</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1169724770642202</v>
+        <v>0.1205821205821206</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01376146788990826</v>
+        <v>0.01663201663201663</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2064220183486239</v>
+        <v>0.20997920997921</v>
       </c>
       <c r="R8">
-        <v>0.07339449541284404</v>
+        <v>0.07276507276507277</v>
       </c>
       <c r="S8">
-        <v>0.4334862385321101</v>
+        <v>0.4261954261954262</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07526881720430108</v>
+        <v>0.07798165137614679</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02150537634408602</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="E9">
-        <v>0.005376344086021506</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="F9">
-        <v>0.04838709677419355</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1021505376344086</v>
+        <v>0.1009174311926606</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01612903225806452</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2096774193548387</v>
+        <v>0.1972477064220184</v>
       </c>
       <c r="R9">
-        <v>0.1021505376344086</v>
+        <v>0.09174311926605505</v>
       </c>
       <c r="S9">
-        <v>0.4193548387096774</v>
+        <v>0.4311926605504587</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09463414634146342</v>
+        <v>0.09178321678321678</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02341463414634146</v>
+        <v>0.02185314685314685</v>
       </c>
       <c r="E10">
-        <v>0.001951219512195122</v>
+        <v>0.001748251748251748</v>
       </c>
       <c r="F10">
-        <v>0.07609756097560975</v>
+        <v>0.07517482517482517</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1053658536585366</v>
+        <v>0.1031468531468532</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0224390243902439</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2282926829268293</v>
+        <v>0.2298951048951049</v>
       </c>
       <c r="R10">
-        <v>0.07707317073170732</v>
+        <v>0.08566433566433566</v>
       </c>
       <c r="S10">
-        <v>0.3707317073170732</v>
+        <v>0.368006993006993</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1317829457364341</v>
+        <v>0.14</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09302325581395349</v>
+        <v>0.09</v>
       </c>
       <c r="K11">
-        <v>0.189922480620155</v>
+        <v>0.2</v>
       </c>
       <c r="L11">
-        <v>0.5697674418604651</v>
+        <v>0.5566666666666666</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01550387596899225</v>
+        <v>0.01333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7124183006535948</v>
+        <v>0.7068965517241379</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1830065359477124</v>
+        <v>0.2011494252873563</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.0261437908496732</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.07843137254901961</v>
+        <v>0.06896551724137931</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.009615384615384616</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2067307692307692</v>
+        <v>0.2034632034632035</v>
       </c>
       <c r="I15">
-        <v>0.05288461538461538</v>
+        <v>0.05627705627705628</v>
       </c>
       <c r="J15">
-        <v>0.2836538461538461</v>
+        <v>0.2813852813852814</v>
       </c>
       <c r="K15">
-        <v>0.08653846153846154</v>
+        <v>0.08658008658008658</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004807692307692308</v>
+        <v>0.004329004329004329</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.125</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2307692307692308</v>
+        <v>0.2424242424242424</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03703703703703703</v>
+        <v>0.04</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2098765432098765</v>
+        <v>0.2171428571428571</v>
       </c>
       <c r="I16">
-        <v>0.1049382716049383</v>
+        <v>0.1028571428571429</v>
       </c>
       <c r="J16">
-        <v>0.345679012345679</v>
+        <v>0.3314285714285714</v>
       </c>
       <c r="K16">
-        <v>0.08641975308641975</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0308641975308642</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04938271604938271</v>
+        <v>0.05142857142857143</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1358024691358025</v>
+        <v>0.1371428571428571</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02163461538461538</v>
+        <v>0.02155172413793104</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1778846153846154</v>
+        <v>0.1767241379310345</v>
       </c>
       <c r="I17">
-        <v>0.09615384615384616</v>
+        <v>0.09698275862068965</v>
       </c>
       <c r="J17">
-        <v>0.40625</v>
+        <v>0.4008620689655172</v>
       </c>
       <c r="K17">
-        <v>0.125</v>
+        <v>0.1271551724137931</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02163461538461538</v>
+        <v>0.01939655172413793</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06490384615384616</v>
+        <v>0.06465517241379311</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08653846153846154</v>
+        <v>0.09267241379310345</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01973684210526316</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1776315789473684</v>
+        <v>0.1828571428571429</v>
       </c>
       <c r="I18">
-        <v>0.09210526315789473</v>
+        <v>0.09714285714285714</v>
       </c>
       <c r="J18">
-        <v>0.3486842105263158</v>
+        <v>0.3542857142857143</v>
       </c>
       <c r="K18">
-        <v>0.07894736842105263</v>
+        <v>0.09714285714285714</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01973684210526316</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07894736842105263</v>
+        <v>0.06857142857142857</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1842105263157895</v>
+        <v>0.1657142857142857</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02463503649635037</v>
+        <v>0.0237315875613748</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2363138686131387</v>
+        <v>0.2315875613747954</v>
       </c>
       <c r="I19">
-        <v>0.0948905109489051</v>
+        <v>0.1014729950900164</v>
       </c>
       <c r="J19">
-        <v>0.3448905109489051</v>
+        <v>0.3453355155482815</v>
       </c>
       <c r="K19">
-        <v>0.1067518248175182</v>
+        <v>0.1072013093289689</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02281021897810219</v>
+        <v>0.0204582651391162</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06478102189781022</v>
+        <v>0.0662847790507365</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1049270072992701</v>
+        <v>0.1039279869067103</v>
       </c>
     </row>
   </sheetData>
